--- a/Datos/WEB Est Fol -Edad de hoja Arato y Beggie 2 años (26 Nov 2016).xlsx
+++ b/Datos/WEB Est Fol -Edad de hoja Arato y Beggie 2 años (26 Nov 2016).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\Consulting\2014+ Arato-Beggie-Inagro Perú\Programas de Cómputo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="927" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="734" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen Arato -Zutano Foliar" sheetId="3" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="Resumen Beggie -Zutano Foliar" sheetId="10" r:id="rId3"/>
     <sheet name="Resumen Beggie -Lula Foliar" sheetId="12" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -150,18 +145,18 @@
     </r>
   </si>
   <si>
-    <t>Fruto en media cosecha (≥ 24% MS</t>
+    <t>Fruto en media cosecha (≥ 24% MS)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +210,14 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -373,7 +376,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -451,6 +454,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Millares 2" xfId="2"/>
@@ -515,7 +521,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -547,10 +553,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -582,7 +587,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -758,43 +762,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:BA38"/>
   <sheetViews>
-    <sheetView topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AX7" sqref="AX7:AX21"/>
+    <sheetView topLeftCell="AV4" workbookViewId="0">
+      <selection activeCell="BC19" sqref="BC19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="18.75">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:53" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" ht="18">
       <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:53" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" ht="18.75">
       <c r="A3" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:53" ht="19.5" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" ht="15" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
@@ -931,7 +935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53">
       <c r="A6" s="16"/>
       <c r="B6" s="18"/>
       <c r="C6" s="20"/>
@@ -978,7 +982,7 @@
       <c r="AZ6" s="22"/>
       <c r="BA6" s="24"/>
     </row>
-    <row r="7" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" ht="15" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>2</v>
       </c>
@@ -1116,7 +1120,7 @@
         <v>11.658733635005724</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="1" t="s">
@@ -1218,7 +1222,7 @@
         <v>19.608316107022084</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="1" t="s">
@@ -1320,14 +1324,14 @@
         <v>21.746453947821266</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="12">
-        <v>0.4916666666666667</v>
+        <v>0.49166666666666697</v>
       </c>
       <c r="E10" s="13">
         <v>12.472633331642065</v>
@@ -1422,7 +1426,7 @@
         <v>21.541252318913134</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="1" t="s">
@@ -1524,7 +1528,7 @@
         <v>15.442982712455771</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="1" t="s">
@@ -1626,7 +1630,7 @@
         <v>22.818167927050041</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="1" t="s">
@@ -1728,7 +1732,7 @@
         <v>18.870305688639537</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="1" t="s">
@@ -1830,14 +1834,14 @@
         <v>99.003015376424472</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="13">
-        <v>33.883333333333333</v>
+        <v>33.883333333333297</v>
       </c>
       <c r="E15" s="13">
         <v>23.661628962154527</v>
@@ -1932,7 +1936,7 @@
         <v>50.812245342289927</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="1" t="s">
@@ -2034,7 +2038,7 @@
         <v>32.354710969995693</v>
       </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="1" t="s">
@@ -2089,7 +2093,7 @@
         <v>96.85</v>
       </c>
       <c r="AC17" s="14">
-        <v>9.8051781877198234</v>
+        <v>9.8051781877198199</v>
       </c>
       <c r="AE17" s="18"/>
       <c r="AF17" s="18"/>
@@ -2136,7 +2140,7 @@
         <v>19.17254618853573</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="1" t="s">
@@ -2166,10 +2170,10 @@
         <v>17</v>
       </c>
       <c r="P18" s="14">
-        <v>0.20000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="Q18" s="14">
-        <v>87.130170817384837</v>
+        <v>87.130170817384794</v>
       </c>
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
@@ -2238,7 +2242,7 @@
         <v>60.244902209588268</v>
       </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="1" t="s">
@@ -2340,7 +2344,7 @@
         <v>1.0087010080281911</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="1" t="s">
@@ -2442,7 +2446,7 @@
         <v>46.112748596868272</v>
       </c>
     </row>
-    <row r="21" spans="1:53" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" ht="16.5">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="5" t="s">
@@ -2543,82 +2547,82 @@
         <v>34.835597874466565</v>
       </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53">
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53">
       <c r="C24" s="6"/>
       <c r="D24" s="8"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53">
       <c r="C25" s="6"/>
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53">
       <c r="C26" s="6"/>
       <c r="D26" s="8"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53">
       <c r="C27" s="6"/>
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53">
       <c r="C28" s="6"/>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53">
       <c r="C29" s="6"/>
       <c r="D29" s="8"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:53">
       <c r="C30" s="6"/>
       <c r="D30" s="8"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:53">
       <c r="C31" s="6"/>
       <c r="D31" s="8"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:53">
       <c r="C32" s="6"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5">
       <c r="C33" s="6"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5">
       <c r="C34" s="6"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:5">
       <c r="C35" s="6"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:5">
       <c r="C36" s="6"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5">
       <c r="C37" s="6"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5">
       <c r="C38" s="6"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -2694,43 +2698,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:BA38"/>
   <sheetViews>
-    <sheetView topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AX7" sqref="AX7:AX21"/>
+    <sheetView topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="BA20" sqref="BA20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="18.75">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:53" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" ht="18">
       <c r="A2" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:53" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" ht="18.75">
       <c r="A3" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:53" ht="19.5" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" ht="15" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
@@ -2867,7 +2871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53">
       <c r="A6" s="16"/>
       <c r="B6" s="18"/>
       <c r="C6" s="20"/>
@@ -2914,7 +2918,7 @@
       <c r="AZ6" s="22"/>
       <c r="BA6" s="24"/>
     </row>
-    <row r="7" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" ht="15" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>20</v>
       </c>
@@ -2928,7 +2932,7 @@
         <v>3.0612499999999998</v>
       </c>
       <c r="E7" s="2">
-        <v>17.510996083606624</v>
+        <v>17.510996083606599</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>20</v>
@@ -3004,7 +3008,7 @@
         <v>2.1450000000000005</v>
       </c>
       <c r="AI7" s="3">
-        <v>11.356824892319564</v>
+        <v>11.356824892319599</v>
       </c>
       <c r="AK7" s="22" t="s">
         <v>20</v>
@@ -3052,7 +3056,7 @@
         <v>14.655457238450756</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="1" t="s">
@@ -3082,7 +3086,7 @@
         <v>7</v>
       </c>
       <c r="P8" s="3">
-        <v>0.21428571428571427</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="Q8" s="3">
         <v>26.652774158994568</v>
@@ -3129,7 +3133,7 @@
         <v>0.16</v>
       </c>
       <c r="AO8" s="3">
-        <v>14.940357616679979</v>
+        <v>14.94035761668</v>
       </c>
       <c r="AQ8" s="18"/>
       <c r="AR8" s="18"/>
@@ -3154,7 +3158,7 @@
         <v>20.191537745156825</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="1" t="s">
@@ -3256,7 +3260,7 @@
         <v>15.903758615299701</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="1" t="s">
@@ -3358,7 +3362,7 @@
         <v>20.881193195684432</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="1" t="s">
@@ -3460,7 +3464,7 @@
         <v>15.165169412693604</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="1" t="s">
@@ -3562,7 +3566,7 @@
         <v>39.727097642092765</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="1" t="s">
@@ -3664,7 +3668,7 @@
         <v>22.737893591105195</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="1" t="s">
@@ -3730,7 +3734,7 @@
         <v>7.0550000000000006</v>
       </c>
       <c r="AI14" s="3">
-        <v>37.890104722416815</v>
+        <v>37.890104722416801</v>
       </c>
       <c r="AK14" s="18"/>
       <c r="AL14" s="18"/>
@@ -3766,7 +3770,7 @@
         <v>30.404816761908759</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="1" t="s">
@@ -3854,7 +3858,7 @@
         <v>126.675</v>
       </c>
       <c r="AU15" s="3">
-        <v>33.305947216630059</v>
+        <v>33.305947216630102</v>
       </c>
       <c r="AW15" s="18"/>
       <c r="AX15" s="27"/>
@@ -3868,7 +3872,7 @@
         <v>33.037599688798196</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="1" t="s">
@@ -3898,7 +3902,7 @@
         <v>15</v>
       </c>
       <c r="P16" s="3">
-        <v>116.98571428571428</v>
+        <v>116.985714285714</v>
       </c>
       <c r="Q16" s="3">
         <v>31.30892341008656</v>
@@ -3970,7 +3974,7 @@
         <v>25.234132686339926</v>
       </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="1" t="s">
@@ -4072,7 +4076,7 @@
         <v>15.281082003055005</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="1" t="s">
@@ -4174,7 +4178,7 @@
         <v>82.733469745131075</v>
       </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="1" t="s">
@@ -4276,7 +4280,7 @@
         <v>22.899659610573849</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="1" t="s">
@@ -4378,7 +4382,7 @@
         <v>45.780713244302142</v>
       </c>
     </row>
-    <row r="21" spans="1:53" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" ht="16.5">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="5" t="s">
@@ -4479,82 +4483,82 @@
         <v>24.369819484613924</v>
       </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53">
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53">
       <c r="C24" s="6"/>
       <c r="D24" s="8"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53">
       <c r="C25" s="6"/>
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53">
       <c r="C26" s="6"/>
       <c r="D26" s="8"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53">
       <c r="C27" s="6"/>
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53">
       <c r="C28" s="6"/>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53">
       <c r="C29" s="6"/>
       <c r="D29" s="8"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:53">
       <c r="C30" s="6"/>
       <c r="D30" s="8"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:53">
       <c r="C31" s="6"/>
       <c r="D31" s="8"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:53">
       <c r="C32" s="6"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5">
       <c r="C33" s="6"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5">
       <c r="C34" s="6"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:5">
       <c r="C35" s="6"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:5">
       <c r="C36" s="6"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5">
       <c r="C37" s="6"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5">
       <c r="C38" s="6"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -4630,43 +4634,43 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:BA38"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7:T21"/>
+    <sheetView topLeftCell="AW4" workbookViewId="0">
+      <selection activeCell="BA20" sqref="BA20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="18.75">
       <c r="A1" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:53" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" ht="18">
       <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:53" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" ht="18.75">
       <c r="A3" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:53" ht="19.5" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" ht="15" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
@@ -4803,7 +4807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53">
       <c r="A6" s="16"/>
       <c r="B6" s="18"/>
       <c r="C6" s="20"/>
@@ -4850,7 +4854,7 @@
       <c r="AZ6" s="22"/>
       <c r="BA6" s="24"/>
     </row>
-    <row r="7" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" ht="15" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>2</v>
       </c>
@@ -4988,7 +4992,7 @@
         <v>12.252568236779551</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="1" t="s">
@@ -5090,7 +5094,7 @@
         <v>13.709818993071208</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="1" t="s">
@@ -5192,7 +5196,7 @@
         <v>14.461410275148182</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="1" t="s">
@@ -5294,7 +5298,7 @@
         <v>20.482533986384361</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="1" t="s">
@@ -5396,7 +5400,7 @@
         <v>9.2948404873763</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="1" t="s">
@@ -5498,7 +5502,7 @@
         <v>21.510415960779959</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="1" t="s">
@@ -5600,7 +5604,7 @@
         <v>22.700542675225861</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="1" t="s">
@@ -5702,14 +5706,14 @@
         <v>88.59324968014711</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="13">
-        <v>19.964285714285715</v>
+        <v>19.964285714285701</v>
       </c>
       <c r="E15" s="13">
         <v>26.33874549288705</v>
@@ -5804,7 +5808,7 @@
         <v>24.138956821575569</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="1" t="s">
@@ -5906,7 +5910,7 @@
         <v>69.770040135316336</v>
       </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="1" t="s">
@@ -5926,7 +5930,7 @@
       <c r="J17" s="3">
         <v>115.55</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="29">
         <v>17.860478366165992</v>
       </c>
       <c r="L17" s="4"/>
@@ -6008,7 +6012,7 @@
         <v>27.505398206073668</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="1" t="s">
@@ -6110,7 +6114,7 @@
         <v>30.99644130344295</v>
       </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="1" t="s">
@@ -6212,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="1" t="s">
@@ -6314,7 +6318,7 @@
         <v>44.078985600691013</v>
       </c>
     </row>
-    <row r="21" spans="1:53" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" ht="16.5">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="5" t="s">
@@ -6415,82 +6419,82 @@
         <v>28.651086477558685</v>
       </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53">
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53">
       <c r="C24" s="6"/>
       <c r="D24" s="8"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53">
       <c r="C25" s="6"/>
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53">
       <c r="C26" s="6"/>
       <c r="D26" s="8"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53">
       <c r="C27" s="6"/>
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53">
       <c r="C28" s="6"/>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53">
       <c r="C29" s="6"/>
       <c r="D29" s="8"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:53">
       <c r="C30" s="6"/>
       <c r="D30" s="8"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:53">
       <c r="C31" s="6"/>
       <c r="D31" s="8"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:53">
       <c r="C32" s="6"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5">
       <c r="C33" s="6"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5">
       <c r="C34" s="6"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:5">
       <c r="C35" s="6"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:5">
       <c r="C36" s="6"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5">
       <c r="C37" s="6"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5">
       <c r="C38" s="6"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -6562,48 +6566,48 @@
     <mergeCell ref="AX7:AX21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:BA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7:T21"/>
+    <sheetView tabSelected="1" topLeftCell="AV4" workbookViewId="0">
+      <selection activeCell="AV7" sqref="AV7:AV21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="18.75">
       <c r="A1" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:53" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" ht="18">
       <c r="A2" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:53" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" ht="18.75">
       <c r="A3" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:53" ht="19.5" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" ht="15" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
@@ -6740,7 +6744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53">
       <c r="A6" s="16"/>
       <c r="B6" s="18"/>
       <c r="C6" s="20"/>
@@ -6787,7 +6791,7 @@
       <c r="AZ6" s="22"/>
       <c r="BA6" s="24"/>
     </row>
-    <row r="7" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" ht="15" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>2</v>
       </c>
@@ -6909,6 +6913,7 @@
       <c r="AU7" s="3">
         <v>7.0431029997092702</v>
       </c>
+      <c r="AV7" s="4"/>
       <c r="AW7" s="26" t="s">
         <v>2</v>
       </c>
@@ -6925,7 +6930,7 @@
         <v>7.0431029997092702</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="1" t="s">
@@ -7015,6 +7020,7 @@
       <c r="AU8" s="3">
         <v>11.173358719233367</v>
       </c>
+      <c r="AV8" s="4"/>
       <c r="AW8" s="27"/>
       <c r="AX8" s="27"/>
       <c r="AY8" s="1" t="s">
@@ -7027,7 +7033,7 @@
         <v>11.173358719233367</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="1" t="s">
@@ -7117,6 +7123,7 @@
       <c r="AU9" s="3">
         <v>16.724506299666469</v>
       </c>
+      <c r="AV9" s="4"/>
       <c r="AW9" s="27"/>
       <c r="AX9" s="27"/>
       <c r="AY9" s="1" t="s">
@@ -7129,7 +7136,7 @@
         <v>16.724506299666469</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="1" t="s">
@@ -7219,6 +7226,7 @@
       <c r="AU10" s="3">
         <v>21.762972392562329</v>
       </c>
+      <c r="AV10" s="4"/>
       <c r="AW10" s="27"/>
       <c r="AX10" s="27"/>
       <c r="AY10" s="1" t="s">
@@ -7231,7 +7239,7 @@
         <v>21.762972392562329</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="1" t="s">
@@ -7321,6 +7329,7 @@
       <c r="AU11" s="3">
         <v>25.466170479896693</v>
       </c>
+      <c r="AV11" s="4"/>
       <c r="AW11" s="27"/>
       <c r="AX11" s="27"/>
       <c r="AY11" s="1" t="s">
@@ -7333,7 +7342,7 @@
         <v>25.466170479896693</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="1" t="s">
@@ -7423,6 +7432,7 @@
       <c r="AU12" s="3">
         <v>20.016622166284126</v>
       </c>
+      <c r="AV12" s="4"/>
       <c r="AW12" s="27"/>
       <c r="AX12" s="27"/>
       <c r="AY12" s="1" t="s">
@@ -7435,7 +7445,7 @@
         <v>20.016622166284126</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="1" t="s">
@@ -7525,6 +7535,7 @@
       <c r="AU13" s="3">
         <v>49.944254458074539</v>
       </c>
+      <c r="AV13" s="4"/>
       <c r="AW13" s="27"/>
       <c r="AX13" s="27"/>
       <c r="AY13" s="1" t="s">
@@ -7537,7 +7548,7 @@
         <v>49.944254458074539</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="1" t="s">
@@ -7627,6 +7638,7 @@
       <c r="AU14" s="3">
         <v>17.606490893513801</v>
       </c>
+      <c r="AV14" s="4"/>
       <c r="AW14" s="27"/>
       <c r="AX14" s="27"/>
       <c r="AY14" s="1" t="s">
@@ -7639,7 +7651,7 @@
         <v>17.606490893513801</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="1" t="s">
@@ -7729,6 +7741,7 @@
       <c r="AU15" s="3">
         <v>49.196540844446517</v>
       </c>
+      <c r="AV15" s="4"/>
       <c r="AW15" s="27"/>
       <c r="AX15" s="27"/>
       <c r="AY15" s="1" t="s">
@@ -7741,7 +7754,7 @@
         <v>49.196540844446517</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="1" t="s">
@@ -7831,6 +7844,7 @@
       <c r="AU16" s="3">
         <v>47.994917049428636</v>
       </c>
+      <c r="AV16" s="4"/>
       <c r="AW16" s="27"/>
       <c r="AX16" s="27"/>
       <c r="AY16" s="1" t="s">
@@ -7843,7 +7857,7 @@
         <v>47.994917049428636</v>
       </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="1" t="s">
@@ -7933,6 +7947,7 @@
       <c r="AU17" s="3">
         <v>27.353481451904265</v>
       </c>
+      <c r="AV17" s="4"/>
       <c r="AW17" s="27"/>
       <c r="AX17" s="27"/>
       <c r="AY17" s="1" t="s">
@@ -7945,7 +7960,7 @@
         <v>27.353481451904265</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="1" t="s">
@@ -8035,6 +8050,7 @@
       <c r="AU18" s="3">
         <v>63.101628180630854</v>
       </c>
+      <c r="AV18" s="4"/>
       <c r="AW18" s="27"/>
       <c r="AX18" s="27"/>
       <c r="AY18" s="1" t="s">
@@ -8047,7 +8063,7 @@
         <v>63.101628180630854</v>
       </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="1" t="s">
@@ -8137,6 +8153,7 @@
       <c r="AU19" s="3">
         <v>0</v>
       </c>
+      <c r="AV19" s="4"/>
       <c r="AW19" s="27"/>
       <c r="AX19" s="27"/>
       <c r="AY19" s="1" t="s">
@@ -8149,7 +8166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="1" t="s">
@@ -8239,6 +8256,7 @@
       <c r="AU20" s="3">
         <v>56.131096510889591</v>
       </c>
+      <c r="AV20" s="4"/>
       <c r="AW20" s="27"/>
       <c r="AX20" s="27"/>
       <c r="AY20" s="1" t="s">
@@ -8251,7 +8269,7 @@
         <v>56.131096510889591</v>
       </c>
     </row>
-    <row r="21" spans="1:53" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" ht="16.5">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="5" t="s">
@@ -8340,6 +8358,7 @@
       <c r="AU21" s="3">
         <v>26.974544782355181</v>
       </c>
+      <c r="AV21" s="4"/>
       <c r="AW21" s="28"/>
       <c r="AX21" s="28"/>
       <c r="AY21" s="5" t="s">
@@ -8352,82 +8371,82 @@
         <v>26.974544782355181</v>
       </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53">
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53">
       <c r="C24" s="6"/>
       <c r="D24" s="8"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53">
       <c r="C25" s="6"/>
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53">
       <c r="C26" s="6"/>
       <c r="D26" s="8"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53">
       <c r="C27" s="6"/>
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53">
       <c r="C28" s="6"/>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53">
       <c r="C29" s="6"/>
       <c r="D29" s="8"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:53">
       <c r="C30" s="6"/>
       <c r="D30" s="8"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:53">
       <c r="C31" s="6"/>
       <c r="D31" s="8"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:53">
       <c r="C32" s="6"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5">
       <c r="C33" s="6"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5">
       <c r="C34" s="6"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:5">
       <c r="C35" s="6"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:5">
       <c r="C36" s="6"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5">
       <c r="C37" s="6"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5">
       <c r="C38" s="6"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
